--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1183225.408779731</v>
+        <v>-1185906.271843139</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14246028.87184606</v>
+        <v>14246028.87184607</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.557216479134</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36.02449900864797</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>131.8127083235112</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>69.53104947294287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>50.46359849275581</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>192.3086032274345</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>119.5483910920094</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>177.338331200579</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.8294508815268</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>157.3250498010025</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>329.3881413491156</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>146.307289262354</v>
       </c>
       <c r="H10" t="n">
-        <v>128.2307790555734</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462228</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.665762779850851</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.05158559392667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.3456785990311</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26.05480806223633</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.600826611595375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3478,13 +3478,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496364</v>
+        <v>522.9713355095446</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496364</v>
+        <v>154.0088185691329</v>
       </c>
       <c r="D2" t="n">
-        <v>116.4560961428859</v>
+        <v>154.0088185691329</v>
       </c>
       <c r="E2" t="n">
-        <v>116.4560961428859</v>
+        <v>154.0088185691329</v>
       </c>
       <c r="F2" t="n">
-        <v>116.4560961428859</v>
+        <v>154.0088185691329</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>154.0088185691329</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137582</v>
+        <v>909.5711755736664</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1936.919803621121</v>
+        <v>791.0311677684842</v>
       </c>
       <c r="C4" t="n">
-        <v>1767.983620693214</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D4" t="n">
-        <v>1617.866981280878</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E4" t="n">
-        <v>1469.953887698485</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392482</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700761</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.36084759489</v>
+        <v>1482.889381779215</v>
       </c>
       <c r="U4" t="n">
-        <v>2339.36084759489</v>
+        <v>1482.889381779215</v>
       </c>
       <c r="V4" t="n">
-        <v>2339.36084759489</v>
+        <v>1482.889381779215</v>
       </c>
       <c r="W4" t="n">
-        <v>2339.36084759489</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="X4" t="n">
-        <v>2339.36084759489</v>
+        <v>1193.472211742254</v>
       </c>
       <c r="Y4" t="n">
-        <v>2118.56826845136</v>
+        <v>972.679632598724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.9105847575083</v>
+        <v>1441.151072944879</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>1072.188556004468</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>1072.188556004468</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>1072.188556004468</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>661.2026512148602</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>245.4979009391491</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2316.884170328636</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.115515058522</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1590.649756797442</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1200.51042482163</v>
+        <v>1441.151072944879</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>474.7770143030104</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W7" t="n">
-        <v>695.5695934465406</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X7" t="n">
-        <v>695.5695934465406</v>
+        <v>1082.894681886797</v>
       </c>
       <c r="Y7" t="n">
-        <v>474.7770143030104</v>
+        <v>862.1021027432672</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137582</v>
+        <v>1709.873294294347</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137582</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D8" t="n">
-        <v>861.3216348137582</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="E8" t="n">
-        <v>861.3216348137582</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>450.3357300241507</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137582</v>
+        <v>1709.873294294347</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.5623317901021</v>
+        <v>898.5456525367873</v>
       </c>
       <c r="C10" t="n">
-        <v>643.5623317901021</v>
+        <v>898.5456525367873</v>
       </c>
       <c r="D10" t="n">
-        <v>643.5623317901021</v>
+        <v>748.4290131244516</v>
       </c>
       <c r="E10" t="n">
-        <v>495.649238207709</v>
+        <v>600.5159195420584</v>
       </c>
       <c r="F10" t="n">
-        <v>348.7592907097986</v>
+        <v>453.6259720441481</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7728260180772</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336323</v>
+        <v>1119.338231680317</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901021</v>
+        <v>898.5456525367873</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911439</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835319</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711961</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.614540988803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908927</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057726</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261844</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138487</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.520700584331</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908939</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,25 +7576,25 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780638</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>341.650965365042</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>346.99048629382</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>254.4252303325424</v>
       </c>
     </row>
     <row r="3">
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9188905722439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>75.0369752643406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.65209508333271</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.5330677581681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>39.05977172825712</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>120.3791545843328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.9838267404994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="12">
@@ -26320,10 +26320,10 @@
         <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
@@ -26338,19 +26338,19 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472608</v>
+        <v>52108.58832472628</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26430,22 +26430,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731997</v>
-      </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731997</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="M4" t="n">
         <v>16108.17168982547</v>
@@ -26454,7 +26454,7 @@
         <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1107471.217535601</v>
+        <v>-1107831.300551319</v>
       </c>
       <c r="C6" t="n">
-        <v>-42521.37448224466</v>
+        <v>-42521.37448224481</v>
       </c>
       <c r="D6" t="n">
         <v>-42521.37448224484</v>
       </c>
       <c r="E6" t="n">
-        <v>-435117.2989449336</v>
+        <v>-435152.0368703693</v>
       </c>
       <c r="F6" t="n">
-        <v>72368.14267961211</v>
+        <v>72333.40475417653</v>
       </c>
       <c r="G6" t="n">
-        <v>72368.14267961223</v>
+        <v>72333.40475417653</v>
       </c>
       <c r="H6" t="n">
-        <v>72368.1426796124</v>
+        <v>72333.4047541765</v>
       </c>
       <c r="I6" t="n">
-        <v>72368.14267961208</v>
+        <v>72333.40475417653</v>
       </c>
       <c r="J6" t="n">
-        <v>-95237.03513037031</v>
+        <v>-95271.77305580603</v>
       </c>
       <c r="K6" t="n">
-        <v>72368.14267961237</v>
+        <v>72333.40475417662</v>
       </c>
       <c r="L6" t="n">
-        <v>46034.39268209098</v>
+        <v>46034.39268209116</v>
       </c>
       <c r="M6" t="n">
-        <v>-67145.18305320396</v>
+        <v>-67145.18305320393</v>
       </c>
       <c r="N6" t="n">
+        <v>65462.1106757228</v>
+      </c>
+      <c r="O6" t="n">
         <v>65462.11067572283</v>
       </c>
-      <c r="O6" t="n">
-        <v>65462.1106757228</v>
-      </c>
       <c r="P6" t="n">
-        <v>65462.1106757228</v>
+        <v>65462.11067572277</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>65.22508037666944</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>264.9940535537574</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>75.88999854998838</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>170.2850975044561</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>108.7099493349709</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>208.2038673781255</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>2.493648981358319</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>56.69354745506416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>224.6053202712592</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>82.1595614238384</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>19.99931078245015</v>
       </c>
       <c r="H10" t="n">
-        <v>19.02073009955549</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28263,10 +28263,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>373.0365088578703</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394599</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
